--- a/data/output.xlsx
+++ b/data/output.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I106"/>
+  <dimension ref="A1:J107"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,11 @@
           <t>percentage_match</t>
         </is>
       </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>notes</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -507,11 +512,12 @@
         <v>120905</v>
       </c>
       <c r="H2" t="n">
-        <v>340377</v>
+        <v>322355</v>
       </c>
       <c r="I2" t="n">
-        <v>281.5243372896076</v>
-      </c>
+        <v>266.618419420206</v>
+      </c>
+      <c r="J2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -540,11 +546,12 @@
         <v>292747</v>
       </c>
       <c r="H3" t="n">
-        <v>473497</v>
+        <v>448102</v>
       </c>
       <c r="I3" t="n">
-        <v>161.7427334865942</v>
-      </c>
+        <v>153.0680075286852</v>
+      </c>
+      <c r="J3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -573,11 +580,12 @@
         <v>2215149</v>
       </c>
       <c r="H4" t="n">
-        <v>5359616</v>
+        <v>4887347</v>
       </c>
       <c r="I4" t="n">
-        <v>241.9528438041866</v>
-      </c>
+        <v>220.6328784203681</v>
+      </c>
+      <c r="J4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -606,11 +614,12 @@
         <v>17151</v>
       </c>
       <c r="H5" t="n">
-        <v>50790</v>
+        <v>20480</v>
       </c>
       <c r="I5" t="n">
-        <v>296.1343361903096</v>
-      </c>
+        <v>119.4099469418693</v>
+      </c>
+      <c r="J5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -639,11 +648,12 @@
         <v>366788</v>
       </c>
       <c r="H6" t="n">
-        <v>1031782</v>
+        <v>441548</v>
       </c>
       <c r="I6" t="n">
-        <v>281.302005518174</v>
-      </c>
+        <v>120.3823462054375</v>
+      </c>
+      <c r="J6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -672,11 +682,12 @@
         <v>245574</v>
       </c>
       <c r="H7" t="n">
-        <v>580403</v>
+        <v>243712</v>
       </c>
       <c r="I7" t="n">
-        <v>236.3454600242697</v>
-      </c>
+        <v>99.24177640955476</v>
+      </c>
+      <c r="J7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -705,11 +716,12 @@
         <v>5527</v>
       </c>
       <c r="H8" t="n">
-        <v>1638</v>
+        <v>1228</v>
       </c>
       <c r="I8" t="n">
-        <v>29.63633074000362</v>
-      </c>
+        <v>22.21820155599783</v>
+      </c>
+      <c r="J8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -738,11 +750,12 @@
         <v>141626</v>
       </c>
       <c r="H9" t="n">
-        <v>294502</v>
+        <v>137625</v>
       </c>
       <c r="I9" t="n">
-        <v>207.9434567099261</v>
-      </c>
+        <v>97.17495375142983</v>
+      </c>
+      <c r="J9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -771,11 +784,12 @@
         <v>10689</v>
       </c>
       <c r="H10" t="n">
-        <v>4505</v>
+        <v>6553</v>
       </c>
       <c r="I10" t="n">
-        <v>42.14613153709421</v>
-      </c>
+        <v>61.30601552998409</v>
+      </c>
+      <c r="J10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -804,11 +818,12 @@
         <v>34435</v>
       </c>
       <c r="H11" t="n">
-        <v>100761</v>
+        <v>95436</v>
       </c>
       <c r="I11" t="n">
-        <v>292.6121678524756</v>
-      </c>
+        <v>277.1482503267025</v>
+      </c>
+      <c r="J11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -836,6 +851,7 @@
       </c>
       <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -864,11 +880,12 @@
         <v>803308</v>
       </c>
       <c r="H13" t="n">
-        <v>9420</v>
+        <v>11468</v>
       </c>
       <c r="I13" t="n">
-        <v>1.172651087752145</v>
-      </c>
+        <v>1.427596886872781</v>
+      </c>
+      <c r="J13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -897,11 +914,12 @@
         <v>305113</v>
       </c>
       <c r="H14" t="n">
-        <v>872857</v>
+        <v>925286</v>
       </c>
       <c r="I14" t="n">
-        <v>286.0766339028491</v>
-      </c>
+        <v>303.2601036337357</v>
+      </c>
+      <c r="J14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -930,11 +948,12 @@
         <v>295868</v>
       </c>
       <c r="H15" t="n">
-        <v>820428</v>
+        <v>873676</v>
       </c>
       <c r="I15" t="n">
-        <v>277.2952803277137</v>
-      </c>
+        <v>295.292495301959</v>
+      </c>
+      <c r="J15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -963,11 +982,12 @@
         <v>25533</v>
       </c>
       <c r="H16" t="n">
-        <v>37683</v>
+        <v>38092</v>
       </c>
       <c r="I16" t="n">
-        <v>147.5854776172013</v>
-      </c>
+        <v>149.187326205303</v>
+      </c>
+      <c r="J16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -996,11 +1016,12 @@
         <v>118088</v>
       </c>
       <c r="H17" t="n">
-        <v>398950</v>
+        <v>425574</v>
       </c>
       <c r="I17" t="n">
-        <v>337.8412709166046</v>
-      </c>
+        <v>360.3871688909965</v>
+      </c>
+      <c r="J17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -1029,11 +1050,12 @@
         <v>122087</v>
       </c>
       <c r="H18" t="n">
-        <v>324403</v>
+        <v>345702</v>
       </c>
       <c r="I18" t="n">
-        <v>265.7146133494967</v>
-      </c>
+        <v>283.1603692448828</v>
+      </c>
+      <c r="J18" t="inlineStr"/>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -1062,11 +1084,12 @@
         <v>104474</v>
       </c>
       <c r="H19" t="n">
-        <v>262144</v>
+        <v>284262</v>
       </c>
       <c r="I19" t="n">
-        <v>250.9179317342114</v>
-      </c>
+        <v>272.0887493539062</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -1095,11 +1118,12 @@
         <v>50828</v>
       </c>
       <c r="H20" t="n">
-        <v>122470</v>
+        <v>129433</v>
       </c>
       <c r="I20" t="n">
-        <v>240.9498701503109</v>
-      </c>
+        <v>254.6490123553947</v>
+      </c>
+      <c r="J20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -1128,11 +1152,12 @@
         <v>44968</v>
       </c>
       <c r="H21" t="n">
-        <v>102400</v>
+        <v>108953</v>
       </c>
       <c r="I21" t="n">
-        <v>227.7174879914606</v>
-      </c>
+        <v>242.2900729407579</v>
+      </c>
+      <c r="J21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -1161,11 +1186,12 @@
         <v>37255</v>
       </c>
       <c r="H22" t="n">
-        <v>87654</v>
+        <v>94617</v>
       </c>
       <c r="I22" t="n">
-        <v>235.2811703127097</v>
-      </c>
+        <v>253.9712790229499</v>
+      </c>
+      <c r="J22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -1194,11 +1220,12 @@
         <v>65001</v>
       </c>
       <c r="H23" t="n">
-        <v>123289</v>
+        <v>131481</v>
       </c>
       <c r="I23" t="n">
-        <v>189.6724665774373</v>
-      </c>
+        <v>202.275349610006</v>
+      </c>
+      <c r="J23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -1227,11 +1254,12 @@
         <v>132030</v>
       </c>
       <c r="H24" t="n">
-        <v>283033</v>
+        <v>304742</v>
       </c>
       <c r="I24" t="n">
-        <v>214.3702188896463</v>
-      </c>
+        <v>230.8126940846777</v>
+      </c>
+      <c r="J24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -1260,11 +1288,12 @@
         <v>25380</v>
       </c>
       <c r="H25" t="n">
-        <v>52838</v>
+        <v>55296</v>
       </c>
       <c r="I25" t="n">
-        <v>208.187549251379</v>
-      </c>
+        <v>217.8723404255319</v>
+      </c>
+      <c r="J25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -1293,11 +1322,12 @@
         <v>168560</v>
       </c>
       <c r="H26" t="n">
-        <v>525107</v>
+        <v>557465</v>
       </c>
       <c r="I26" t="n">
-        <v>311.5252728998576</v>
-      </c>
+        <v>330.7219981015662</v>
+      </c>
+      <c r="J26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -1327,6 +1357,7 @@
       </c>
       <c r="H27" t="inlineStr"/>
       <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -1355,11 +1386,12 @@
         <v>2857542</v>
       </c>
       <c r="H28" t="n">
-        <v>6039961</v>
+        <v>6148505</v>
       </c>
       <c r="I28" t="n">
-        <v>211.369106735789</v>
-      </c>
+        <v>215.1676160840331</v>
+      </c>
+      <c r="J28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -1388,11 +1420,12 @@
         <v>2208028</v>
       </c>
       <c r="H29" t="n">
-        <v>4571136</v>
+        <v>4673126</v>
       </c>
       <c r="I29" t="n">
-        <v>207.0234616590007</v>
-      </c>
+        <v>211.6425154028844</v>
+      </c>
+      <c r="J29" t="inlineStr"/>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -1421,11 +1454,12 @@
         <v>123593</v>
       </c>
       <c r="H30" t="n">
-        <v>309657</v>
+        <v>335052</v>
       </c>
       <c r="I30" t="n">
-        <v>250.5457428818784</v>
-      </c>
+        <v>271.0930230676495</v>
+      </c>
+      <c r="J30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -1454,11 +1488,12 @@
         <v>12426</v>
       </c>
       <c r="H31" t="n">
-        <v>20070</v>
+        <v>22528</v>
       </c>
       <c r="I31" t="n">
-        <v>161.5161757605022</v>
-      </c>
+        <v>181.2972798969902</v>
+      </c>
+      <c r="J31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -1488,6 +1523,7 @@
       </c>
       <c r="H32" t="inlineStr"/>
       <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -1516,11 +1552,12 @@
         <v>319680</v>
       </c>
       <c r="H33" t="n">
-        <v>632832</v>
+        <v>688128</v>
       </c>
       <c r="I33" t="n">
-        <v>197.957957957958</v>
-      </c>
+        <v>215.2552552552553</v>
+      </c>
+      <c r="J33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -1549,11 +1586,12 @@
         <v>319680</v>
       </c>
       <c r="H34" t="n">
-        <v>639385</v>
+        <v>692224</v>
       </c>
       <c r="I34" t="n">
-        <v>200.0078203203203</v>
-      </c>
+        <v>216.5365365365365</v>
+      </c>
+      <c r="J34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -1582,11 +1620,12 @@
         <v>305620</v>
       </c>
       <c r="H35" t="n">
-        <v>382976</v>
+        <v>421068</v>
       </c>
       <c r="I35" t="n">
-        <v>125.3111707348995</v>
-      </c>
+        <v>137.7750147241673</v>
+      </c>
+      <c r="J35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -1615,11 +1654,12 @@
         <v>113497</v>
       </c>
       <c r="H36" t="n">
-        <v>425574</v>
+        <v>455065</v>
       </c>
       <c r="I36" t="n">
-        <v>374.9649770478515</v>
-      </c>
+        <v>400.9489237600994</v>
+      </c>
+      <c r="J36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -1648,11 +1688,12 @@
         <v>150714</v>
       </c>
       <c r="H37" t="n">
-        <v>494387</v>
+        <v>533708</v>
       </c>
       <c r="I37" t="n">
-        <v>328.0299109571772</v>
-      </c>
+        <v>354.1197234497127</v>
+      </c>
+      <c r="J37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -1686,6 +1727,7 @@
       <c r="I38" t="n">
         <v>106.3325431764307</v>
       </c>
+      <c r="J38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -1714,11 +1756,12 @@
         <v>53680</v>
       </c>
       <c r="H39" t="n">
-        <v>79872</v>
+        <v>85196</v>
       </c>
       <c r="I39" t="n">
-        <v>148.7928464977645</v>
-      </c>
+        <v>158.7108792846498</v>
+      </c>
+      <c r="J39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -1752,6 +1795,7 @@
       <c r="I40" t="n">
         <v>42.89005235602094</v>
       </c>
+      <c r="J40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -1785,6 +1829,7 @@
       <c r="I41" t="n">
         <v>53.76532399299475</v>
       </c>
+      <c r="J41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -1818,6 +1863,7 @@
       <c r="I42" t="n">
         <v>35.71844095404305</v>
       </c>
+      <c r="J42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -1851,6 +1897,7 @@
       <c r="I43" t="n">
         <v>34.32710727969349</v>
       </c>
+      <c r="J43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -1879,11 +1926,12 @@
         <v>7239</v>
       </c>
       <c r="H44" t="n">
-        <v>2867</v>
+        <v>3686</v>
       </c>
       <c r="I44" t="n">
-        <v>39.60491780632684</v>
-      </c>
+        <v>50.91863517060368</v>
+      </c>
+      <c r="J44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -1917,6 +1965,7 @@
       <c r="I45" t="n">
         <v>45.58925838319187</v>
       </c>
+      <c r="J45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -1945,11 +1994,12 @@
         <v>20508</v>
       </c>
       <c r="H46" t="n">
-        <v>6144</v>
+        <v>6553</v>
       </c>
       <c r="I46" t="n">
-        <v>29.959040374488</v>
-      </c>
+        <v>31.95338404525063</v>
+      </c>
+      <c r="J46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -1978,11 +2028,12 @@
         <v>1277642</v>
       </c>
       <c r="H47" t="n">
-        <v>2829516</v>
+        <v>2908569</v>
       </c>
       <c r="I47" t="n">
-        <v>221.46391555694</v>
-      </c>
+        <v>227.6513295586714</v>
+      </c>
+      <c r="J47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -2011,11 +2062,12 @@
         <v>698473</v>
       </c>
       <c r="H48" t="n">
-        <v>1572454</v>
+        <v>1648640</v>
       </c>
       <c r="I48" t="n">
-        <v>225.1273850241885</v>
-      </c>
+        <v>236.0348932600115</v>
+      </c>
+      <c r="J48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -2044,11 +2096,12 @@
         <v>221887</v>
       </c>
       <c r="H49" t="n">
-        <v>561971</v>
+        <v>604160</v>
       </c>
       <c r="I49" t="n">
-        <v>253.2690062959975</v>
-      </c>
+        <v>272.2827385110439</v>
+      </c>
+      <c r="J49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -2077,11 +2130,12 @@
         <v>65535</v>
       </c>
       <c r="H50" t="n">
-        <v>126976</v>
+        <v>140492</v>
       </c>
       <c r="I50" t="n">
-        <v>193.7529564354925</v>
-      </c>
+        <v>214.3770504310674</v>
+      </c>
+      <c r="J50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -2110,11 +2164,12 @@
         <v>11304</v>
       </c>
       <c r="H51" t="n">
-        <v>18432</v>
+        <v>19251</v>
       </c>
       <c r="I51" t="n">
-        <v>163.0573248407644</v>
-      </c>
+        <v>170.3025477707006</v>
+      </c>
+      <c r="J51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -2143,11 +2198,12 @@
         <v>282782</v>
       </c>
       <c r="H52" t="n">
-        <v>565248</v>
+        <v>617676</v>
       </c>
       <c r="I52" t="n">
-        <v>199.8882531419963</v>
-      </c>
+        <v>218.4283299502797</v>
+      </c>
+      <c r="J52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -2181,6 +2237,7 @@
       <c r="I53" t="n">
         <v>426.5625</v>
       </c>
+      <c r="J53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -2214,6 +2271,7 @@
       <c r="I54" t="n">
         <v>602.2058823529412</v>
       </c>
+      <c r="J54" t="inlineStr"/>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -2247,6 +2305,7 @@
       <c r="I55" t="n">
         <v>325.7954545454545</v>
       </c>
+      <c r="J55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -2275,11 +2334,12 @@
         <v>365891</v>
       </c>
       <c r="H56" t="n">
-        <v>754483</v>
+        <v>805683</v>
       </c>
       <c r="I56" t="n">
-        <v>206.2043067470913</v>
-      </c>
+        <v>220.1975451705563</v>
+      </c>
+      <c r="J56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -2313,6 +2373,7 @@
       <c r="I57" t="n">
         <v>857.5916230366491</v>
       </c>
+      <c r="J57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -2341,11 +2402,12 @@
         <v>92038</v>
       </c>
       <c r="H58" t="n">
-        <v>201932</v>
+        <v>224460</v>
       </c>
       <c r="I58" t="n">
-        <v>219.400682326865</v>
-      </c>
+        <v>243.8775288467807</v>
+      </c>
+      <c r="J58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -2374,11 +2436,12 @@
         <v>27725</v>
       </c>
       <c r="H59" t="n">
-        <v>57344</v>
+        <v>61849</v>
       </c>
       <c r="I59" t="n">
-        <v>206.8313796212804</v>
-      </c>
+        <v>223.0802524797114</v>
+      </c>
+      <c r="J59" t="inlineStr"/>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -2407,11 +2470,12 @@
         <v>319680</v>
       </c>
       <c r="H60" t="n">
-        <v>754073</v>
+        <v>808140</v>
       </c>
       <c r="I60" t="n">
-        <v>235.8836961961962</v>
-      </c>
+        <v>252.7965465465465</v>
+      </c>
+      <c r="J60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -2440,11 +2504,12 @@
         <v>319680</v>
       </c>
       <c r="H61" t="n">
-        <v>752435</v>
+        <v>803635</v>
       </c>
       <c r="I61" t="n">
-        <v>235.3713088088088</v>
-      </c>
+        <v>251.3873248248248</v>
+      </c>
+      <c r="J61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -2473,11 +2538,12 @@
         <v>328169</v>
       </c>
       <c r="H62" t="n">
-        <v>794624</v>
+        <v>847462</v>
       </c>
       <c r="I62" t="n">
-        <v>242.1386541690409</v>
-      </c>
+        <v>258.2395046454723</v>
+      </c>
+      <c r="J62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -2506,11 +2572,12 @@
         <v>1304193</v>
       </c>
       <c r="H63" t="n">
-        <v>2812313</v>
+        <v>2900377</v>
       </c>
       <c r="I63" t="n">
-        <v>215.636259357319</v>
-      </c>
+        <v>222.3886341975459</v>
+      </c>
+      <c r="J63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -2539,11 +2606,12 @@
         <v>115584</v>
       </c>
       <c r="H64" t="n">
-        <v>267059</v>
+        <v>286720</v>
       </c>
       <c r="I64" t="n">
-        <v>231.0518756921373</v>
-      </c>
+        <v>248.062015503876</v>
+      </c>
+      <c r="J64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -2572,11 +2640,12 @@
         <v>69519</v>
       </c>
       <c r="H65" t="n">
-        <v>174080</v>
+        <v>189235</v>
       </c>
       <c r="I65" t="n">
-        <v>250.4063637279017</v>
-      </c>
+        <v>272.206159467196</v>
+      </c>
+      <c r="J65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -2606,6 +2675,7 @@
       </c>
       <c r="H66" t="inlineStr"/>
       <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -2634,11 +2704,12 @@
         <v>328169</v>
       </c>
       <c r="H67" t="n">
-        <v>801587</v>
+        <v>851558</v>
       </c>
       <c r="I67" t="n">
-        <v>244.260426792293</v>
-      </c>
+        <v>259.4876420380962</v>
+      </c>
+      <c r="J67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -2667,11 +2738,12 @@
         <v>80956</v>
       </c>
       <c r="H68" t="n">
-        <v>169574</v>
+        <v>188416</v>
       </c>
       <c r="I68" t="n">
-        <v>209.4644004150403</v>
-      </c>
+        <v>232.7387716784426</v>
+      </c>
+      <c r="J68" t="inlineStr"/>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -2705,6 +2777,7 @@
       <c r="I69" t="n">
         <v>31.94850789935635</v>
       </c>
+      <c r="J69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -2733,11 +2806,12 @@
         <v>46094</v>
       </c>
       <c r="H70" t="n">
-        <v>110182</v>
+        <v>119603</v>
       </c>
       <c r="I70" t="n">
-        <v>239.0376187790168</v>
-      </c>
+        <v>259.4762875862368</v>
+      </c>
+      <c r="J70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -2766,11 +2840,12 @@
         <v>8125140</v>
       </c>
       <c r="H71" t="n">
-        <v>10184294</v>
+        <v>10504601</v>
       </c>
       <c r="I71" t="n">
-        <v>125.3429971668181</v>
-      </c>
+        <v>129.2851692401608</v>
+      </c>
+      <c r="J71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -2804,6 +2879,7 @@
       <c r="I72" t="n">
         <v>17.69031141868512</v>
       </c>
+      <c r="J72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -2832,11 +2908,12 @@
         <v>2460514</v>
       </c>
       <c r="H73" t="n">
-        <v>4060774</v>
+        <v>4176281</v>
       </c>
       <c r="I73" t="n">
-        <v>165.0376303487808</v>
-      </c>
+        <v>169.7320559850503</v>
+      </c>
+      <c r="J73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -2866,6 +2943,7 @@
       </c>
       <c r="H74" t="inlineStr"/>
       <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -2894,11 +2972,12 @@
         <v>319680</v>
       </c>
       <c r="H75" t="n">
-        <v>732364</v>
+        <v>784384</v>
       </c>
       <c r="I75" t="n">
-        <v>229.0928428428428</v>
-      </c>
+        <v>245.3653653653654</v>
+      </c>
+      <c r="J75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -2932,6 +3011,7 @@
       <c r="I76" t="n">
         <v>36.13865546218488</v>
       </c>
+      <c r="J76" t="inlineStr"/>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -2960,11 +3040,12 @@
         <v>18700</v>
       </c>
       <c r="H77" t="n">
-        <v>14745</v>
+        <v>16793</v>
       </c>
       <c r="I77" t="n">
-        <v>78.85026737967914</v>
-      </c>
+        <v>89.80213903743316</v>
+      </c>
+      <c r="J77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -2993,11 +3074,12 @@
         <v>148027</v>
       </c>
       <c r="H78" t="n">
-        <v>133529</v>
+        <v>149913</v>
       </c>
       <c r="I78" t="n">
-        <v>90.20584082633573</v>
-      </c>
+        <v>101.2740918886419</v>
+      </c>
+      <c r="J78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -3026,11 +3108,12 @@
         <v>36919</v>
       </c>
       <c r="H79" t="n">
-        <v>28672</v>
+        <v>31948</v>
       </c>
       <c r="I79" t="n">
-        <v>77.66190850239714</v>
-      </c>
+        <v>86.53538828245618</v>
+      </c>
+      <c r="J79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -3059,11 +3142,12 @@
         <v>7539</v>
       </c>
       <c r="H80" t="n">
-        <v>17612</v>
+        <v>22118</v>
       </c>
       <c r="I80" t="n">
-        <v>233.6118848653668</v>
-      </c>
+        <v>293.3810850245391</v>
+      </c>
+      <c r="J80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -3092,11 +3176,12 @@
         <v>7347</v>
       </c>
       <c r="H81" t="n">
-        <v>2457</v>
+        <v>4096</v>
       </c>
       <c r="I81" t="n">
-        <v>33.44222131482238</v>
-      </c>
+        <v>55.75064652239009</v>
+      </c>
+      <c r="J81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -3125,11 +3210,12 @@
         <v>7109</v>
       </c>
       <c r="H82" t="n">
-        <v>2867</v>
+        <v>4505</v>
       </c>
       <c r="I82" t="n">
-        <v>40.32916021944015</v>
-      </c>
+        <v>63.37037558025038</v>
+      </c>
+      <c r="J82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -3158,11 +3244,12 @@
         <v>11183</v>
       </c>
       <c r="H83" t="n">
-        <v>27033</v>
+        <v>29900</v>
       </c>
       <c r="I83" t="n">
-        <v>241.7329875704194</v>
-      </c>
+        <v>267.3701153536618</v>
+      </c>
+      <c r="J83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -3191,11 +3278,12 @@
         <v>101722</v>
       </c>
       <c r="H84" t="n">
-        <v>238387</v>
+        <v>265011</v>
       </c>
       <c r="I84" t="n">
-        <v>234.3514677257624</v>
-      </c>
+        <v>260.5247635713022</v>
+      </c>
+      <c r="J84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -3224,11 +3312,12 @@
         <v>46513</v>
       </c>
       <c r="H85" t="n">
-        <v>109363</v>
+        <v>122880</v>
       </c>
       <c r="I85" t="n">
-        <v>235.1235138563412</v>
-      </c>
+        <v>264.1842065659063</v>
+      </c>
+      <c r="J85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -3257,11 +3346,12 @@
         <v>2857555</v>
       </c>
       <c r="H86" t="n">
-        <v>4309811</v>
+        <v>4505190</v>
       </c>
       <c r="I86" t="n">
-        <v>150.8216289800196</v>
-      </c>
+        <v>157.6589077025639</v>
+      </c>
+      <c r="J86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -3290,11 +3380,12 @@
         <v>2857555</v>
       </c>
       <c r="H87" t="n">
-        <v>4342169</v>
+        <v>4435558</v>
       </c>
       <c r="I87" t="n">
-        <v>151.9539956361295</v>
-      </c>
+        <v>155.2221392064195</v>
+      </c>
+      <c r="J87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -3323,11 +3414,12 @@
         <v>106787</v>
       </c>
       <c r="H88" t="n">
-        <v>3276</v>
+        <v>4505</v>
       </c>
       <c r="I88" t="n">
-        <v>3.067789150364745</v>
-      </c>
+        <v>4.21867830353882</v>
+      </c>
+      <c r="J88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -3356,11 +3448,12 @@
         <v>248935</v>
       </c>
       <c r="H89" t="n">
-        <v>382156</v>
+        <v>423526</v>
       </c>
       <c r="I89" t="n">
-        <v>153.5163797778537</v>
-      </c>
+        <v>170.1351758491172</v>
+      </c>
+      <c r="J89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -3389,11 +3482,12 @@
         <v>194219</v>
       </c>
       <c r="H90" t="n">
-        <v>4096</v>
+        <v>4915</v>
       </c>
       <c r="I90" t="n">
-        <v>2.108959473583944</v>
-      </c>
+        <v>2.530648391763937</v>
+      </c>
+      <c r="J90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -3422,11 +3516,12 @@
         <v>505067</v>
       </c>
       <c r="H91" t="n">
-        <v>709427</v>
+        <v>739328</v>
       </c>
       <c r="I91" t="n">
-        <v>140.461958512435</v>
-      </c>
+        <v>146.3821631585512</v>
+      </c>
+      <c r="J91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -3455,11 +3550,12 @@
         <v>260773</v>
       </c>
       <c r="H92" t="n">
-        <v>392396</v>
+        <v>453017</v>
       </c>
       <c r="I92" t="n">
-        <v>150.4741671875539</v>
-      </c>
+        <v>173.7208223243971</v>
+      </c>
+      <c r="J92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -3489,6 +3585,7 @@
       </c>
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -3518,6 +3615,7 @@
       </c>
       <c r="H94" t="inlineStr"/>
       <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -3546,11 +3644,12 @@
         <v>68508</v>
       </c>
       <c r="H95" t="n">
-        <v>102809</v>
+        <v>115916</v>
       </c>
       <c r="I95" t="n">
-        <v>150.0686051264086</v>
-      </c>
+        <v>169.2006772931628</v>
+      </c>
+      <c r="J95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -3584,6 +3683,7 @@
       <c r="I96" t="n">
         <v>53.21553852150188</v>
       </c>
+      <c r="J96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" t="n">
@@ -3612,11 +3712,12 @@
         <v>526484</v>
       </c>
       <c r="H97" t="n">
-        <v>726220</v>
+        <v>813465</v>
       </c>
       <c r="I97" t="n">
-        <v>137.937715106252</v>
-      </c>
+        <v>154.5089689335288</v>
+      </c>
+      <c r="J97" t="inlineStr"/>
     </row>
     <row r="98">
       <c r="A98" t="n">
@@ -3646,6 +3747,7 @@
       </c>
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" t="n">
@@ -3674,11 +3776,12 @@
         <v>83644</v>
       </c>
       <c r="H99" t="n">
-        <v>201523</v>
+        <v>203161</v>
       </c>
       <c r="I99" t="n">
-        <v>240.9294151403568</v>
-      </c>
+        <v>242.8877145999713</v>
+      </c>
+      <c r="J99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" t="n">
@@ -3707,11 +3810,12 @@
         <v>401782</v>
       </c>
       <c r="H100" t="n">
-        <v>713932</v>
+        <v>721715</v>
       </c>
       <c r="I100" t="n">
-        <v>177.691384880358</v>
-      </c>
+        <v>179.6285050101797</v>
+      </c>
+      <c r="J100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" t="n">
@@ -3740,11 +3844,12 @@
         <v>401782</v>
       </c>
       <c r="H101" t="n">
-        <v>713932</v>
+        <v>721715</v>
       </c>
       <c r="I101" t="n">
-        <v>177.691384880358</v>
-      </c>
+        <v>179.6285050101797</v>
+      </c>
+      <c r="J101" t="inlineStr"/>
     </row>
     <row r="102">
       <c r="A102" t="n">
@@ -3773,11 +3878,12 @@
         <v>104743</v>
       </c>
       <c r="H102" t="n">
-        <v>8192</v>
+        <v>66355</v>
       </c>
       <c r="I102" t="n">
-        <v>7.821047707245353</v>
-      </c>
+        <v>63.35029548513982</v>
+      </c>
+      <c r="J102" t="inlineStr"/>
     </row>
     <row r="103">
       <c r="A103" t="n">
@@ -3806,11 +3912,12 @@
         <v>24028</v>
       </c>
       <c r="H103" t="n">
-        <v>819</v>
+        <v>16384</v>
       </c>
       <c r="I103" t="n">
-        <v>3.408523389379058</v>
-      </c>
+        <v>68.18711503246213</v>
+      </c>
+      <c r="J103" t="inlineStr"/>
     </row>
     <row r="104">
       <c r="A104" t="n">
@@ -3839,11 +3946,12 @@
         <v>18167</v>
       </c>
       <c r="H104" t="n">
-        <v>1228</v>
+        <v>10240</v>
       </c>
       <c r="I104" t="n">
-        <v>6.759508999834865</v>
-      </c>
+        <v>56.36593823966533</v>
+      </c>
+      <c r="J104" t="inlineStr"/>
     </row>
     <row r="105">
       <c r="A105" t="n">
@@ -3871,8 +3979,13 @@
       <c r="G105" t="n">
         <v>1015</v>
       </c>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
+      <c r="H105" t="n">
+        <v>819</v>
+      </c>
+      <c r="I105" t="n">
+        <v>80.68965517241379</v>
+      </c>
+      <c r="J105" t="inlineStr"/>
     </row>
     <row r="106">
       <c r="A106" t="n">
@@ -3900,8 +4013,47 @@
       <c r="G106" t="n">
         <v>2879</v>
       </c>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
+      <c r="H106" t="n">
+        <v>1228</v>
+      </c>
+      <c r="I106" t="n">
+        <v>42.65369920111149</v>
+      </c>
+      <c r="J106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>3456</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>True North Invitees with CSM Director Field Populated</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>2197101</v>
+      </c>
+      <c r="D107" t="n">
+        <v>34577</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>2023-07-14 19:36:25</t>
+        </is>
+      </c>
+      <c r="F107" t="b">
+        <v>0</v>
+      </c>
+      <c r="G107" t="n">
+        <v>10703</v>
+      </c>
+      <c r="H107" t="n">
+        <v>409</v>
+      </c>
+      <c r="I107" t="n">
+        <v>3.821358497617491</v>
+      </c>
+      <c r="J107" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
